--- a/old_database/crypto/bioSample/bioSample_2477.xlsx
+++ b/old_database/crypto/bioSample/bioSample_2477.xlsx
@@ -55,7 +55,7 @@
     <t>08.30.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2477</t>
   </si>
   <si>
     <t>CNAG_00000</t>
